--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen_Amalorpavara\Documents\Storylab\chrono-quest-card-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7678471A-9F06-49F5-998F-AF9EAE876CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0A3CC-D225-4136-8361-55D592A8A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>no</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>https://i.pinimg.com/736x/41/4c/e2/414ce2488eaef487e3655abd886ce59f--hubble-space-telescope-beautiful.jpg</t>
+  </si>
+  <si>
+    <t>Alexander Fleming discovers penicillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Darwin publishes "On the Origin of Species," </t>
+  </si>
+  <si>
+    <t>https://surfaceimpression.digital/wp-content/uploads/2017/04/Portrait_of_Charles_Darwin._Wellcome_M0010103.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.history.com/sites/2/2016/05/Buzz_Aldrin_Apollo_Spacesuit.jpg</t>
+  </si>
+  <si>
+    <t>Apollo 11 mission to Moon</t>
+  </si>
+  <si>
+    <t>The attack on Pearl Harbor</t>
+  </si>
+  <si>
+    <t>https://bloximages.chicago2.vip.townnews.com/tucson.com/content/tncms/assets/v3/editorial/3/c3/3c30679d-77fa-5b02-8650-b3eeb311d565/5a131aad78187.image.jpg?resize=1200%2C1544</t>
+  </si>
+  <si>
+    <t>https://www.sciencehistory.org/sites/default/files/styles/rte_full_width/public/historical_profile/bio-fleming-lab-bmsquibb.jpg?itok=Q8oC_HjC</t>
   </si>
 </sst>
 </file>
@@ -570,9 +594,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265FBA5-7A73-4627-B556-FF5D4982F62A}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -872,6 +896,110 @@
         <v>1961</v>
       </c>
     </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1928</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1859</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1969</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="95.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1941</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1941</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
